--- a/Exports/s24_grad.xlsx
+++ b/Exports/s24_grad.xlsx
@@ -94,7 +94,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="5213751185669702476" xfId="1" hidden="0"/>
+    <cellStyle name="362528962533712342" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/Exports/s24_grad.xlsx
+++ b/Exports/s24_grad.xlsx
@@ -94,7 +94,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="362528962533712342" xfId="1" hidden="0"/>
+    <cellStyle name="4565284716643894420" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
